--- a/Entrega Documentação/planilha_organização_tarefas.xlsx
+++ b/Entrega Documentação/planilha_organização_tarefas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b87728d689ca8c06/Documents/generation/projeto integrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E48955D5-60CA-4FDF-9A0E-295185CD8AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9024" activeTab="1"/>
+    <workbookView xWindow="-20520" yWindow="1545" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend" sheetId="1" r:id="rId1"/>
@@ -20,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Função</t>
   </si>
@@ -117,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,28 +333,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,6 +350,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2226,56 +2215,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="46.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+    <row r="2" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2278,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2292,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2323,120 +2312,120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="15"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="16"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="16"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="16"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="16"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="17"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="20"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="21"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="21"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="21"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="22"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="B12" s="6"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="6"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" s="6"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="6"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="6"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
       <c r="B17" s="7"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="7"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="16"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="16"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="16"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="17"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="20"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="20"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="21"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="21"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="22"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>8</v>
       </c>
@@ -2445,10 +2434,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="19"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2448,7 @@
       <c r="E24" s="10"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2474,144 +2463,120 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="15"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="15"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="16"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="16"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="16"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="17"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="20"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="21"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="21"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="21"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="21"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="22"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
       <c r="B30" s="6"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="6"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="23"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="23"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
       <c r="B32" s="6"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="6"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="23"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="6"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="23"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="23"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35" s="7"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="7"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="23"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="15"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="15"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="16"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="16"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="16"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="16"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="17"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="17"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="20"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="20"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="21"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="21"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="21"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="21"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="22"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="H36:H39"/>
     <mergeCell ref="B1:F2"/>
@@ -2625,6 +2590,30 @@
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2634,33 +2623,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="46.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2668,12 +2657,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+    <row r="2" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2681,13 +2670,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2690,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2704,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2735,132 +2724,144 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="15"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="16"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="16"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="16"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="16"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="17"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="21"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="21"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="21"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="22"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="24"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="24"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="12"/>
-      <c r="D16" s="24"/>
+    <row r="16" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="7"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="6"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
       <c r="B17" s="7"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="7"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="16"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="16"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="16"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="17"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D18" s="12"/>
+      <c r="E18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="21"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="21"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="22"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2875,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>6</v>
       </c>
@@ -2888,7 +2889,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2908,130 +2909,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="15"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="15"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="16"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="16"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="16"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="17"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="20"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="21"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="21"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="21"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="21"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="22"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="22"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
       <c r="B30" s="6"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="6"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
       <c r="B32" s="6"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="6"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="6"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="24"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35" s="7"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="7"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="15"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="15"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="16"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="16"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="16"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="16"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="17"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="17"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="20"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="20"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="21"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="21"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="21"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="21"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="22"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="22"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="19"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>6</v>
       </c>
@@ -3039,7 +3040,7 @@
       <c r="E42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -3049,120 +3050,165 @@
       <c r="E43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="15"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="16"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="16"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="17"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="23"/>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="20"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="21"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="21"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
       <c r="B48" s="6"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="23"/>
       <c r="E48"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="23"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="D49" s="13"/>
+      <c r="D49" s="23"/>
       <c r="E49"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="23"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="24"/>
+    <row r="50" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="23"/>
       <c r="E50"/>
-      <c r="G50" s="13"/>
+      <c r="G50" s="23"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
+    <row r="51" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
       <c r="B51" s="6"/>
-      <c r="D51" s="13"/>
+      <c r="D51" s="23"/>
       <c r="E51"/>
-      <c r="G51" s="13"/>
+      <c r="G51" s="23"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
+    <row r="52" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
       <c r="B52" s="6"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="23"/>
       <c r="E52"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="23"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
+    <row r="53" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
       <c r="B53" s="7"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="23"/>
       <c r="E53"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="23"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="15"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="16"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="16"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
-      <c r="B57" s="17"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="20"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="21"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="21"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G18:G21"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
@@ -3173,51 +3219,6 @@
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="H8:H11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="G54:G57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
